--- a/tools/excel/src/test/resources/template.xlsx
+++ b/tools/excel/src/test/resources/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8445"/>
+    <workbookView windowWidth="18187" windowHeight="8872"/>
   </bookViews>
   <sheets>
     <sheet name="表格1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -43,13 +43,79 @@
     <t>编码8</t>
   </si>
   <si>
-    <t>名称0</t>
-  </si>
-  <si>
-    <t>名称1</t>
-  </si>
-  <si>
-    <t>名称2</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40.4</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60.4</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <t>0.24</t>
   </si>
 </sst>
 </file>
@@ -57,13 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-dd\ hh:mm"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,6 +145,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,29 +158,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -116,16 +188,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +232,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -154,10 +249,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,61 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +549,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -492,11 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -541,172 +628,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -719,7 +791,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,15 +1125,15 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="5.85925925925926" customWidth="1"/>
-    <col min="2" max="7" width="6.85925925925926" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="6.85925925925926" customWidth="1"/>
+    <col min="1" max="1" width="5.85840707964602" customWidth="1"/>
+    <col min="2" max="7" width="6.85840707964602" customWidth="1"/>
+    <col min="8" max="8" width="14.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="6.85840707964602" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1087,91 +1165,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="14.65" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>1683045463077</v>
       </c>
-      <c r="E2" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
         <v>45049.0261930208</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="14.65" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>1683045473077</v>
       </c>
-      <c r="E3" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7">
         <v>45049.0261930208</v>
       </c>
-      <c r="I3" s="3">
-        <v>0.1</v>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="14.65" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>1683045483077</v>
       </c>
-      <c r="E4" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
         <v>45049.0261930208</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.2</v>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
